--- a/Pricer.xlsx
+++ b/Pricer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulbourcereau/Desktop/Dauphine/S1/CS/HestonPricer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pb201100\source\repos\HestonPricer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9736575-DC08-C348-85E4-EE737B23D84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7C6BFF-0560-4137-BBC8-9258BD3E8490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19980" activeTab="2" xr2:uid="{0687A19E-9EAC-4F4A-B5A4-80A1476C9C74}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="16063" xr2:uid="{0687A19E-9EAC-4F4A-B5A4-80A1476C9C74}"/>
   </bookViews>
   <sheets>
     <sheet name="Pricer" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,19 @@
     <sheet name="Sensi Analysis " sheetId="4" r:id="rId3"/>
     <sheet name="Data" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="Kappa">Pricer!$K$4</definedName>
+    <definedName name="Maturity">Pricer!$G$4</definedName>
+    <definedName name="Rho">Pricer!$O$4</definedName>
+    <definedName name="RiskFree">Pricer!$D$4</definedName>
+    <definedName name="Sigma">Pricer!$N$4</definedName>
+    <definedName name="SpotPrice">Pricer!$E$4</definedName>
+    <definedName name="Strike">Pricer!$F$4</definedName>
+    <definedName name="Theta">Pricer!$L$4</definedName>
+    <definedName name="V0">Pricer!$M$4</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,6 +50,28 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
@@ -63,29 +97,6 @@
   </si>
   <si>
     <t>𝛉 (Variance long terme)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>V0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Volatilité intiale)</t>
-    </r>
   </si>
   <si>
     <t>𝞂 (Vol de la vol.)</t>
@@ -117,13 +128,36 @@
   <si>
     <t>Evolution des sensis en fonction des paramètres du modèle d'Heston</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Volatilité intiale)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -257,7 +291,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -338,9 +372,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -378,7 +412,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -484,7 +518,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -626,7 +660,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -634,23 +668,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D35D28B-5873-6148-BE29-E01D12C40066}">
-  <dimension ref="B3:O4"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B3:O6"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" customWidth="1"/>
-    <col min="4" max="7" width="13.83203125" customWidth="1"/>
+    <col min="4" max="7" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" customWidth="1"/>
-    <col min="11" max="15" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="6.35546875" customWidth="1"/>
+    <col min="11" max="15" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,16 +713,16 @@
         <v>7</v>
       </c>
       <c r="M3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="9" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="10">
@@ -718,6 +753,12 @@
       </c>
       <c r="O4" s="13">
         <v>-0.57110000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6" cm="1">
+        <f t="array" ref="B6">_xll.PriceOptionHeston("EuropeanCall", SpotPrice, Strike, Maturity, RiskFree, Kappa, Theta, V0, Sigma, Rho)</f>
+        <v>11.688474935126191</v>
       </c>
     </row>
   </sheetData>
@@ -728,22 +769,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFD2603-4128-8344-A2CA-86F4980BF52F}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5 B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -753,22 +795,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C163499-9867-AC4A-A4AC-90D7DA2C2C42}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B3:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -778,13 +821,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D916D6AE-4803-A44A-8305-13046D0C7696}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.640625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pricer.xlsx
+++ b/Pricer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pb201100\source\repos\HestonPricer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7C6BFF-0560-4137-BBC8-9258BD3E8490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3703D5C7-5C53-49F0-993B-8FFF59D56738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="16063" xr2:uid="{0687A19E-9EAC-4F4A-B5A4-80A1476C9C74}"/>
   </bookViews>
